--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value841.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value841.xlsx
@@ -354,7 +354,7 @@
         <v>1.379441910427533</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.628631641574996</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value841.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value841.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6149764177290545</v>
+        <v>0.853403627872467</v>
       </c>
       <c r="B1">
-        <v>1.379441910427533</v>
+        <v>1.216473579406738</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.41157603263855</v>
       </c>
       <c r="D1">
-        <v>2.628631641574996</v>
+        <v>4.093273162841797</v>
       </c>
       <c r="E1">
-        <v>1.644955895246836</v>
+        <v>0.6605732440948486</v>
       </c>
     </row>
   </sheetData>
